--- a/Lab 2/servo table final.xlsx
+++ b/Lab 2/servo table final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\Mechatronics\Lab 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronmesser/Documents/Mechatronics/Lab 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353128AB-246E-4DA2-B2D9-0506BB08851A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CAA8A2-1DCA-3A43-B563-8CC25EE4C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F683F38C-4DBB-4D11-9A99-CD76B7BFB687}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F683F38C-4DBB-4D11-9A99-CD76B7BFB687}"/>
   </bookViews>
   <sheets>
     <sheet name="servo data" sheetId="2" r:id="rId1"/>
@@ -6946,11 +6946,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E954DBEE-D403-4432-96F9-A6F0914C54AA}" name="servo_data" displayName="servo_data" ref="A1:B965" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E954DBEE-D403-4432-96F9-A6F0914C54AA}" name="servo_data" displayName="servo_data" ref="A1:B965" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B965" xr:uid="{E954DBEE-D403-4432-96F9-A6F0914C54AA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{56BE1AEE-3765-40D9-996D-389C60E91BA0}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7D6E8921-14D3-4CFA-B471-8C35FD2C3FF6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{56BE1AEE-3765-40D9-996D-389C60E91BA0}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D6E8921-14D3-4CFA-B471-8C35FD2C3FF6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7256,15 +7256,15 @@
   <dimension ref="A1:B965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.34</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.35</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.37</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.39</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.41</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.42</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.44</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.46</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.47</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.51</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.53</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.56000000000000005</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.56999999999999995</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.59</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.61</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.62</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.64</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.66</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.67</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.69</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.71</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.73</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.75</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.76</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.77</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.81</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.83</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.85</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.88</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.89</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.91</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.94</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.96</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.98</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1.01</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1.03</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1.05</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1.08</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1.0900000000000001</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1.1100000000000001</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1.1399999999999999</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1.1499999999999999</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1.18</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1.2</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1.22</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1.25</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1.28</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1.3</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1.33</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1.35</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1.38</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1.42</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1.44</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1.47</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1.5</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1.52</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1.57</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1.6</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1.62</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1.66</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1.69</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1.73</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1.76</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1.78</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1.81</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1.85</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1.87</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1.89</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1.93</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1.95</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1.97</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2.0099999999999998</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2.0099999999999998</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2.0499999999999998</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2.08</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2.08</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2.12</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2.14</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2.14</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2.1800000000000002</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2.19</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2.2400000000000002</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2.2400000000000002</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2.25</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2.2799999999999998</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2.2799999999999998</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2.3199999999999998</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2.33</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2.35</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2.37</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2.39</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2.41</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2.42</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2.4300000000000002</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>2.46</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2.4700000000000002</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2.4700000000000002</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2.5</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2.5099999999999998</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2.5099999999999998</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2.5499999999999998</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2.5499999999999998</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2.57</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2.59</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2.59</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2.61</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>2.63</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>2.62</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>2.65</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2.66</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2.67</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2.69</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>2.71</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2.72</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>2.74</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>2.75</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>2.76</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>2.79</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>2.79</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>2.8</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>2.83</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>2.83</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>2.85</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2.85</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>2.86</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>2.89</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>2.9</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>2.91</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>2.94</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2.94</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2.95</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2.98</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2.99</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2.99</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>3.02</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>3.02</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>3.04</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>3.06</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>3.06</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>3.07</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>3.1</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>3.09</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>3.13</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>3.15</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>3.15</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>3.18</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>3.18</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>3.19</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>3.21</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>3.21</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>3.23</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>3.25</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>3.26</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>3.26</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>3.28</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>3.29</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>3.31</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>3.33</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>3.33</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>3.35</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>3.37</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>3.38</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>3.4</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>3.41</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>3.43</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>3.45</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>3.46</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>3.48</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>3.5</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>3.5</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>3.52</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>3.54</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>3.54</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>3.57</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>3.59</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>3.59</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>3.62</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>3.63</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>3.64</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>3.65</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>3.67</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>3.7</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>3.71</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>3.73</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>3.74</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>3.75</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>3.76</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>3.77</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>3.79</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>3.8</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>3.82</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>3.84</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>3.85</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>3.87</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>3.88</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>3.89</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>3.91</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>3.92</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>3.93</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>3.95</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>3.96</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>3.98</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>3.98</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>3.99</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>4</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>4.01</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>4.0199999999999996</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>4.03</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>4.05</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>4.0599999999999996</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>4.07</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>4.08</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>4.09</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>4.09</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>4.12</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>4.13</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>4.1399999999999997</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>4.1500000000000004</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>4.16</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>4.16</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>4.17</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>4.18</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>4.1900000000000004</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>4.21</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>4.22</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>4.2300000000000004</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>4.24</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>4.25</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>4.26</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>4.26</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>4.2699999999999996</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>4.28</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>4.29</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>4.3</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>4.3099999999999996</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>4.32</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>4.32</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>4.33</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>4.33</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>4.34</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>4.3499999999999996</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>4.3600000000000003</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>4.3600000000000003</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>4.37</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>4.37</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>4.38</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>4.38</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>4.38</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>4.3899999999999997</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>4.41</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>4.42</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>4.42</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>4.42</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>4.42</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>4.43</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>4.43</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>4.4400000000000004</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>4.45</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>4.46</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>4.46</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>4.46</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>4.46</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>4.47</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>4.47</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>4.4800000000000004</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>4.49</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>4.5</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>4.5</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>4.51</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>4.51</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>4.51</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>4.5199999999999996</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>4.5199999999999996</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>4.5199999999999996</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>4.53</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>4.54</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>4.54</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>4.55</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>4.55</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>4.5599999999999996</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>4.5599999999999996</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>4.5599999999999996</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>4.57</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>4.57</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>4.58</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>4.58</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>4.58</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>4.59</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>4.59</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>4.6100000000000003</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>4.62</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>4.62</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>4.63</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>4.63</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>4.63</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>4.6399999999999997</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>4.6399999999999997</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>4.6500000000000004</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>4.6500000000000004</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>4.6500000000000004</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>4.66</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>4.67</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>4.67</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>4.68</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>4.68</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>4.68</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>4.6900000000000004</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>4.6900000000000004</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>4.7</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>4.7</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>4.71</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>4.72</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>4.72</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>4.72</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>4.7300000000000004</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>4.7300000000000004</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>4.74</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>4.74</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>4.75</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>4.75</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>4.75</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>4.76</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>4.7699999999999996</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>4.7699999999999996</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>4.7699999999999996</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>4.7699999999999996</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>4.78</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>4.78</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>4.79</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>4.79</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>4.79</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>4.8</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>4.8</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>4.8099999999999996</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>4.8099999999999996</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>4.82</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>4.82</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>4.83</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>4.84</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>4.84</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>4.84</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>4.8499999999999996</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>4.8499999999999996</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>4.8499999999999996</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>4.8600000000000003</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>4.87</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>4.88</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>4.8899999999999997</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>4.8899999999999997</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>4.8899999999999997</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>4.91</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>4.91</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>4.92</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>4.92</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>4.93</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>4.9400000000000004</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>4.9400000000000004</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>4.95</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>4.95</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>4.96</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>4.97</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>4.97</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>4.9800000000000004</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>4.9800000000000004</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>4.99</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>5</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>5</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>5</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>5</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>5</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>5</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>5</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>5</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>5</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>5</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>5</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>5</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>5</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>5</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>5</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>5</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>5</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>5</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>5</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>5</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>5</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>5</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>5</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>5</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>5</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>5</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>5</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>5</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>5</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>5</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>5</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>5</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>5</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>5</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>5</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>5</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>5</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>5</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>5</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>5</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>5</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>5</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>5</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>5</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>5</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>5</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>5</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>5</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>5</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>5</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>5</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>5</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>5</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>5</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>5</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>5</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>5</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>5</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>5</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>5</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>5</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>5</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>5</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>5</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>5</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>5</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>5</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>5</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>5</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>5</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>5</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>5</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>5</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>5</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>5</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>5</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>5</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>5</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>5</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>5</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>5</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>5</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>5</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>5</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>5</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>5</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>5</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>5</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>5</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>5</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>5</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>5</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>5</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>5</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>5</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>5</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>5</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>5</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>5</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>5</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>5</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>5</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>5</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>5</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>5</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>5</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>5</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>5</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>5</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>5</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>5</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>4.9800000000000004</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>4.9400000000000004</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>4.91</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>4.88</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>4.8499999999999996</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>4.8099999999999996</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>4.78</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>4.75</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>4.72</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>4.6900000000000004</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>4.66</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>4.63</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>4.57</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>4.54</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>4.51</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>4.49</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>4.46</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>4.4400000000000004</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>4.41</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>4.38</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>4.3600000000000003</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>4.33</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>4.3</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>4.2699999999999996</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>4.25</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>4.22</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>4.2</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>4.17</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>4.1399999999999997</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>4.07</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>4.04</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>4.0199999999999996</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>3.99</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>3.97</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>3.94</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>3.92</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>3.89</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>3.86</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>3.83</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>3.8</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>3.76</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>3.74</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>3.71</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>3.69</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>3.66</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>3.62</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>3.59</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>3.55</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>3.53</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>3.5</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>3.47</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>3.44</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>3.4</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>3.36</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>3.34</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>3.3</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>3.26</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>3.24</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>3.19</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>3.17</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>3.14</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>3.1</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>3.08</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>3.06</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>3.02</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>3</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>2.97</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>2.93</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>2.92</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>2.89</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>2.87</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>2.85</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>2.81</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>2.79</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>2.77</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>2.72</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>2.71</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>2.68</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>2.65</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>2.63</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>2.61</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>2.58</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>2.59</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>2.5499999999999998</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>2.5299999999999998</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>2.52</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>2.4900000000000002</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>2.4700000000000002</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>2.46</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>2.4300000000000002</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>2.42</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>2.41</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>2.38</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>2.38</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>2.36</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>2.33</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>2.33</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>2.31</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>2.27</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>2.27</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>2.25</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>2.23</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>2.2200000000000002</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>2.1800000000000002</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>2.1800000000000002</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>2.16</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>2.14</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>2.13</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>2.09</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>2.09</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>2.0699999999999998</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>2.0499999999999998</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>2.0299999999999998</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>2.0099999999999998</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>1.98</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>1.97</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>1.95</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>1.92</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>1.91</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>1.88</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>1.85</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>1.86</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>1.81</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>1.79</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>1.79</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>1.76</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>1.74</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>1.72</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>1.68</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>1.67</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>1.65</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>1.61</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>1.61</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>1.57</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>1.55</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>1.53</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>1.49</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>1.48</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>1.46</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>1.42</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>1.41</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>1.38</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>1.34</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>1.33</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>1.3</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>1.27</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>1.26</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>1.23</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>1.2</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>1.19</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>1.1599999999999999</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>1.1499999999999999</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>1.1399999999999999</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>1.0900000000000001</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>1.08</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>1.04</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>1.02</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>0.99</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>0.96</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>0.94</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>0.91</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>0.87</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>0.85</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>0.82</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>0.8</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>0.76</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>0.73</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>0.7</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>0.67</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>0.64</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>0.62</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>0.52</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>0.49</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>0.45</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>0.42</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>0.39</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>0.35</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>0.32</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>0.25</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>0.22</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>0.19</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>0.16</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>0.13</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>0.1</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>0.06</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>0.03</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>0</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>0</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>0</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>0</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>0</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>0</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>0</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>0</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>0</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>0</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>0</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>0</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>0</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>0</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>0</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>0</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>0</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>0</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>0</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>0</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>0</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>0</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>0</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>0</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>0</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>0</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>0</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>0</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>0</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>0</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>0</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>0</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>0</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>0</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>0</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>0</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>0</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>0</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>0</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>0</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>0</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>0</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>0</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>0</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>0</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>0</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>0</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>0</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>0</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>0</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>0</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>0</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>0</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>0</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>0</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>0</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>0</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>0</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>0</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>0</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>0</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>0</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>0</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>0</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>0</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>0</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>0</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>0</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>0</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>0</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>0</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>0</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>0</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>0</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>0</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>0</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>0</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>0</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>0</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>0</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>0</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>0</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>0</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>0</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>0</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>0</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>0</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>0</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>0</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>0</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>0</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>0</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>0</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>0</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>0</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>0</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>0</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>0</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>0</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>0</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>0</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>0</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>0</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>0</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>0</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>0</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>0</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>0</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>0</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>0</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>0</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>0</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>0</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>0</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>0</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>0</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>0</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>0</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>0</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>0</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>0</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>0</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -15000,7 +15000,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
